--- a/BackTest/2020-01-25 BackTest WPX.xlsx
+++ b/BackTest/2020-01-25 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-452597.5675780163</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-451369.1675780162</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>57.02</v>
@@ -521,7 +521,7 @@
         <v>-96484.37737801624</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>57.5</v>
@@ -1228,7 +1228,7 @@
         <v>854872.0988191203</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
         <v>809718.8564191203</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
         <v>1498875.948903791</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
         <v>1498875.948903791</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2515,7 @@
         <v>1519042.208903791</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
         <v>1541429.985203791</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>1540222.627403791</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2614,7 @@
         <v>1540222.627403791</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2647,7 @@
         <v>1551515.751705001</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
         <v>1551515.751705001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2713,7 @@
         <v>1549672.225805001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2911,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2944,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2977,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
         <v>1530326.368205001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
         <v>1588692.939005001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
         <v>1585385.147505001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3109,7 @@
         <v>1581244.964205001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3142,7 @@
         <v>1560458.010805001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3175,7 @@
         <v>1548747.923105001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3208,7 @@
         <v>1457488.929705001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3241,7 @@
         <v>1457488.929705001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3274,7 @@
         <v>1454772.418505001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3307,7 @@
         <v>1479092.182105001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         <v>1483949.279105001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
         <v>1483949.279105001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
         <v>1468689.628705001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3439,7 @@
         <v>1583391.106672362</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
         <v>1582039.184407893</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
         <v>1576441.063907893</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3538,7 @@
         <v>1576441.063907893</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3571,7 @@
         <v>1570414.141207893</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3604,7 @@
         <v>1570414.141207893</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
         <v>1570414.141207893</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
         <v>1568391.870107893</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
         <v>1548900.167107893</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3769,7 +3769,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3802,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3835,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
         <v>1532910.444707893</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
         <v>1532918.444707893</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3934,7 +3934,7 @@
         <v>1532918.444707893</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3967,7 +3967,7 @@
         <v>1541205.734406433</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4000,7 +4000,7 @@
         <v>1546273.275406433</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4033,7 +4033,7 @@
         <v>1561506.501306433</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         <v>1557289.065706433</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
         <v>1592812.148336711</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4132,7 +4132,7 @@
         <v>1592781.229536711</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
         <v>1635589.200919173</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4198,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4231,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4264,7 @@
         <v>1629328.652012131</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
         <v>1629328.652012131</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4330,7 @@
         <v>1629764.133112131</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4363,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4429,7 @@
         <v>1629434.235912131</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4462,7 @@
         <v>1629434.235912131</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4495,7 @@
         <v>1629944.832912131</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4528,7 @@
         <v>1631671.965412131</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,7 +4561,7 @@
         <v>1631679.965412131</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4594,7 @@
         <v>1631679.965412131</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
         <v>1631671.965412131</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4759,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +4792,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +4825,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4891,7 +4891,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +4924,7 @@
         <v>1631356.085212131</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4957,7 +4957,7 @@
         <v>1624317.69172807</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4990,7 +4990,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5023,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5089,7 +5089,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5122,7 +5122,7 @@
         <v>1613227.78312807</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5155,7 +5155,7 @@
         <v>1610120.31082807</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5188,7 +5188,7 @@
         <v>1610128.31082807</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5221,7 +5221,7 @@
         <v>1643789.57482807</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5254,7 +5254,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5287,7 +5287,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5320,7 +5320,7 @@
         <v>1632124.428728071</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5353,7 +5353,7 @@
         <v>1612571.207528071</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
         <v>1596385.38382807</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5419,7 +5419,7 @@
         <v>1592029.46142807</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5452,7 +5452,7 @@
         <v>1588794.58932807</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5485,7 +5485,7 @@
         <v>1582628.00142807</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5518,7 +5518,7 @@
         <v>1681980.21222807</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5551,7 +5551,7 @@
         <v>1681980.21222807</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5584,7 +5584,7 @@
         <v>1679963.21222807</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5617,7 +5617,7 @@
         <v>1658937.06122807</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5650,7 +5650,7 @@
         <v>1658954.06122807</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5683,7 +5683,7 @@
         <v>1667261.31542807</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5716,7 +5716,7 @@
         <v>1667252.31542807</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5749,7 +5749,7 @@
         <v>1655827.32672807</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
         <v>1659651.65632807</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5815,7 +5815,7 @@
         <v>1659608.85922807</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5881,7 +5881,7 @@
         <v>1666744.09692807</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5914,7 +5914,7 @@
         <v>1664696.87992807</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5947,7 +5947,7 @@
         <v>1665666.26362807</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5980,7 +5980,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6145,7 +6145,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6277,7 +6277,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6310,7 +6310,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6376,7 +6376,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6409,7 +6409,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6442,7 +6442,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6475,7 +6475,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6508,7 +6508,7 @@
         <v>1783562.401718671</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6541,7 +6541,7 @@
         <v>1783605.198818671</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6574,7 +6574,7 @@
         <v>1792602.841634107</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6607,7 +6607,7 @@
         <v>1778010.276834107</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6640,7 +6640,7 @@
         <v>1778049.577552361</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6673,7 +6673,7 @@
         <v>1763418.953552361</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6706,7 +6706,7 @@
         <v>1749096.406952361</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6739,7 +6739,7 @@
         <v>1744540.801652361</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6772,7 +6772,7 @@
         <v>1744548.801652361</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6805,7 +6805,7 @@
         <v>1666559.427152361</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6838,7 +6838,7 @@
         <v>1677239.763152361</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6871,7 +6871,7 @@
         <v>1608931.523852361</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6904,7 +6904,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6937,7 +6937,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6970,7 +6970,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7003,7 +7003,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
         <v>1660201.509852361</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7531,7 +7531,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7564,7 +7564,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7597,7 +7597,7 @@
         <v>1642943.693527086</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7696,7 +7696,7 @@
         <v>1649247.598627086</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7729,7 +7729,7 @@
         <v>1649247.598627086</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         <v>1649810.892327086</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7894,7 +7894,7 @@
         <v>1630218.833527086</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7927,7 +7927,7 @@
         <v>1630218.833527086</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7960,7 +7960,7 @@
         <v>1633171.620927086</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7993,7 +7993,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8026,7 +8026,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8059,7 +8059,7 @@
         <v>1628103.922227086</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8092,7 +8092,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8125,7 +8125,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8158,7 +8158,7 @@
         <v>1615688.368127086</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8191,7 +8191,7 @@
         <v>1611620.368127086</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8290,7 +8290,7 @@
         <v>1606498.145927086</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
         <v>1609240.802896742</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8356,7 +8356,7 @@
         <v>1589346.298396742</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8389,7 +8389,7 @@
         <v>1571708.940996742</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8422,7 +8422,7 @@
         <v>1563249.025296742</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8455,7 +8455,7 @@
         <v>1548873.967896742</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8488,7 +8488,7 @@
         <v>1516148.236796742</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8554,7 +8554,7 @@
         <v>1489040.508096742</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8587,7 +8587,7 @@
         <v>1489040.508096742</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8620,7 +8620,7 @@
         <v>1482829.137796742</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8653,7 +8653,7 @@
         <v>1478909.641396742</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8686,7 +8686,7 @@
         <v>1486880.394596742</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8719,7 +8719,7 @@
         <v>1436190.161896742</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8752,7 +8752,7 @@
         <v>1397833.856796742</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8785,7 +8785,7 @@
         <v>1382488.778696742</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
         <v>1420248.095396742</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8851,7 +8851,7 @@
         <v>1422030.776496742</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8884,7 +8884,7 @@
         <v>1455427.762996742</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8917,7 +8917,7 @@
         <v>1445190.080196742</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8950,7 +8950,7 @@
         <v>1335563.424096742</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9016,7 +9016,7 @@
         <v>1335261.002096742</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -18355,7 +18355,7 @@
         <v>787568.9437999631</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18388,7 +18388,7 @@
         <v>787473.9437999631</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18421,7 +18421,7 @@
         <v>786697.4821999631</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18454,7 +18454,7 @@
         <v>803072.654999963</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -23140,7 +23140,7 @@
         <v>1785719.854977993</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23173,7 +23173,7 @@
         <v>1221782.988277993</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23206,7 +23206,7 @@
         <v>1068714.669034785</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23239,7 +23239,7 @@
         <v>1132268.415054027</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23272,7 +23272,7 @@
         <v>1125792.901054027</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23305,7 +23305,7 @@
         <v>1026974.288654028</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23338,7 +23338,7 @@
         <v>1021863.560686254</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23371,7 +23371,7 @@
         <v>926501.8818862537</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23404,7 +23404,7 @@
         <v>909139.6351862537</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23437,7 +23437,7 @@
         <v>906699.4169862537</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23536,7 +23536,7 @@
         <v>683456.5019862537</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23569,7 +23569,7 @@
         <v>221328.1141862536</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23602,7 +23602,7 @@
         <v>200321.9983862536</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23668,7 +23668,7 @@
         <v>176520.8470862536</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23701,7 +23701,7 @@
         <v>175828.8897862536</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23800,7 +23800,7 @@
         <v>89090.77208625362</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23932,7 +23932,7 @@
         <v>52339.27288625362</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23965,7 +23965,7 @@
         <v>-30552.30408999449</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23998,7 +23998,7 @@
         <v>26747.6812337574</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24064,7 +24064,7 @@
         <v>-45960.5037662426</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24097,7 +24097,7 @@
         <v>-46687.7484662426</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24196,7 +24196,7 @@
         <v>-260537.4343662426</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24229,7 +24229,7 @@
         <v>-226552.1601975132</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24262,7 +24262,7 @@
         <v>-165534.5485975132</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24295,7 +24295,7 @@
         <v>-165534.5485975132</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27507,6 +27507,6 @@
       <c r="M821" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WPX.xlsx
+++ b/BackTest/2020-01-25 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -865,7 +865,7 @@
         <v>730070.4486794948</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -898,7 +898,7 @@
         <v>544933.9910794948</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
         <v>1498875.948903791</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
         <v>1498875.948903791</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2515,7 @@
         <v>1519042.208903791</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
         <v>1541429.985203791</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>1540222.627403791</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2614,7 @@
         <v>1540222.627403791</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2647,7 @@
         <v>1551515.751705001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
         <v>1551515.751705001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2713,7 @@
         <v>1549672.225805001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2911,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2944,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2977,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
         <v>1530326.368205001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
         <v>1588692.939005001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
         <v>1585385.147505001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3109,7 +3109,7 @@
         <v>1581244.964205001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3142,7 @@
         <v>1560458.010805001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3175,7 @@
         <v>1548747.923105001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3208,7 @@
         <v>1457488.929705001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3241,7 @@
         <v>1457488.929705001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3274,7 @@
         <v>1454772.418505001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3307,7 @@
         <v>1479092.182105001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         <v>1483949.279105001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
         <v>1483949.279105001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
         <v>1468689.628705001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3439,7 @@
         <v>1583391.106672362</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
         <v>1582039.184407893</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
         <v>1576441.063907893</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3538,7 @@
         <v>1576441.063907893</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3571,7 @@
         <v>1570414.141207893</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3604,7 @@
         <v>1570414.141207893</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
         <v>1570414.141207893</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
         <v>1568391.870107893</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3703,7 @@
         <v>1548900.167107893</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3736,7 +3736,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3769,7 +3769,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3802,7 +3802,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3835,7 +3835,7 @@
         <v>1536929.189407893</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
         <v>1532910.444707893</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
         <v>1532918.444707893</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3934,7 +3934,7 @@
         <v>1532918.444707893</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3967,7 +3967,7 @@
         <v>1541205.734406433</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4000,7 +4000,7 @@
         <v>1546273.275406433</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4033,7 +4033,7 @@
         <v>1561506.501306433</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         <v>1557289.065706433</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
         <v>1592812.148336711</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4132,7 +4132,7 @@
         <v>1592781.229536711</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
         <v>1635589.200919173</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4198,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4231,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4264,7 @@
         <v>1629328.652012131</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
         <v>1629328.652012131</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4330,7 @@
         <v>1629764.133112131</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4363,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4429,7 @@
         <v>1629434.235912131</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4462,7 @@
         <v>1629434.235912131</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4495,7 @@
         <v>1629944.832912131</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4528,7 @@
         <v>1631671.965412131</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,7 +4561,7 @@
         <v>1631679.965412131</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4594,7 @@
         <v>1631679.965412131</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
         <v>1631671.965412131</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4759,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +4792,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +4825,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4891,7 +4891,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4924,7 +4924,7 @@
         <v>1631356.085212131</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4957,7 +4957,7 @@
         <v>1624317.69172807</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4990,7 +4990,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5023,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5089,7 +5089,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5122,7 +5122,7 @@
         <v>1613227.78312807</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5155,7 +5155,7 @@
         <v>1610120.31082807</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5188,7 +5188,7 @@
         <v>1610128.31082807</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5221,7 +5221,7 @@
         <v>1643789.57482807</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5254,7 +5254,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5287,7 +5287,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5320,7 +5320,7 @@
         <v>1632124.428728071</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5353,7 +5353,7 @@
         <v>1612571.207528071</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
         <v>1596385.38382807</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5419,7 +5419,7 @@
         <v>1592029.46142807</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5452,7 +5452,7 @@
         <v>1588794.58932807</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5485,7 +5485,7 @@
         <v>1582628.00142807</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5518,7 +5518,7 @@
         <v>1681980.21222807</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5551,7 +5551,7 @@
         <v>1681980.21222807</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5584,7 +5584,7 @@
         <v>1679963.21222807</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5617,7 +5617,7 @@
         <v>1658937.06122807</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5650,7 +5650,7 @@
         <v>1658954.06122807</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5683,7 +5683,7 @@
         <v>1667261.31542807</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5716,7 +5716,7 @@
         <v>1667252.31542807</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5749,7 +5749,7 @@
         <v>1655827.32672807</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
         <v>1659651.65632807</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5815,7 +5815,7 @@
         <v>1659608.85922807</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5881,7 +5881,7 @@
         <v>1666744.09692807</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5914,7 +5914,7 @@
         <v>1664696.87992807</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5947,7 +5947,7 @@
         <v>1665666.26362807</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5980,7 +5980,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6277,7 +6277,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6310,7 +6310,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6376,7 +6376,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6409,7 +6409,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6442,7 +6442,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6475,7 +6475,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6508,7 +6508,7 @@
         <v>1783562.401718671</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6541,7 +6541,7 @@
         <v>1783605.198818671</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6574,7 +6574,7 @@
         <v>1792602.841634107</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6607,7 +6607,7 @@
         <v>1778010.276834107</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6640,7 +6640,7 @@
         <v>1778049.577552361</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6673,7 +6673,7 @@
         <v>1763418.953552361</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6706,7 +6706,7 @@
         <v>1749096.406952361</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6739,7 +6739,7 @@
         <v>1744540.801652361</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6772,7 +6772,7 @@
         <v>1744548.801652361</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6805,7 +6805,7 @@
         <v>1666559.427152361</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6838,7 +6838,7 @@
         <v>1677239.763152361</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6871,7 +6871,7 @@
         <v>1608931.523852361</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6904,7 +6904,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6937,7 +6937,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6970,7 +6970,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7003,7 +7003,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
         <v>1660201.509852361</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7531,7 +7531,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7696,7 +7696,7 @@
         <v>1649247.598627086</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7729,7 +7729,7 @@
         <v>1649247.598627086</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
         <v>1649810.892327086</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7894,7 +7894,7 @@
         <v>1630218.833527086</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7927,7 +7927,7 @@
         <v>1630218.833527086</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7960,7 +7960,7 @@
         <v>1633171.620927086</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7993,7 +7993,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8026,7 +8026,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8059,7 +8059,7 @@
         <v>1628103.922227086</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8092,7 +8092,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8125,7 +8125,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8158,7 +8158,7 @@
         <v>1615688.368127086</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8191,7 +8191,7 @@
         <v>1611620.368127086</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8290,7 +8290,7 @@
         <v>1606498.145927086</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
         <v>1609240.802896742</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8356,7 +8356,7 @@
         <v>1589346.298396742</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8389,7 +8389,7 @@
         <v>1571708.940996742</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8422,7 +8422,7 @@
         <v>1563249.025296742</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8455,7 +8455,7 @@
         <v>1548873.967896742</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8488,7 +8488,7 @@
         <v>1516148.236796742</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8554,7 +8554,7 @@
         <v>1489040.508096742</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8587,7 +8587,7 @@
         <v>1489040.508096742</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8620,7 +8620,7 @@
         <v>1482829.137796742</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8653,7 +8653,7 @@
         <v>1478909.641396742</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8686,7 +8686,7 @@
         <v>1486880.394596742</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8719,7 +8719,7 @@
         <v>1436190.161896742</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8752,7 +8752,7 @@
         <v>1397833.856796742</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8785,7 +8785,7 @@
         <v>1382488.778696742</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
         <v>1420248.095396742</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8851,7 +8851,7 @@
         <v>1422030.776496742</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8884,7 +8884,7 @@
         <v>1455427.762996742</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8917,7 +8917,7 @@
         <v>1445190.080196742</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8950,7 +8950,7 @@
         <v>1335563.424096742</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9016,7 +9016,7 @@
         <v>1335261.002096742</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -23206,7 +23206,7 @@
         <v>1068714.669034785</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23239,7 +23239,7 @@
         <v>1132268.415054027</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23272,7 +23272,7 @@
         <v>1125792.901054027</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23305,7 +23305,7 @@
         <v>1026974.288654028</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23338,7 +23338,7 @@
         <v>1021863.560686254</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23371,7 +23371,7 @@
         <v>926501.8818862537</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23404,7 +23404,7 @@
         <v>909139.6351862537</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23437,7 +23437,7 @@
         <v>906699.4169862537</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23536,7 +23536,7 @@
         <v>683456.5019862537</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23569,7 +23569,7 @@
         <v>221328.1141862536</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23602,7 +23602,7 @@
         <v>200321.9983862536</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -27507,6 +27507,6 @@
       <c r="M821" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WPX.xlsx
+++ b/BackTest/2020-01-25 BackTest WPX.xlsx
@@ -865,7 +865,7 @@
         <v>730070.4486794948</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -898,7 +898,7 @@
         <v>544933.9910794948</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
         <v>1498875.948903791</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2515,7 @@
         <v>1519042.208903791</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
         <v>1541429.985203791</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>1540222.627403791</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
         <v>1551515.751705001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2713,7 @@
         <v>1549672.225805001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2779,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2878,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2911,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2944,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2977,7 @@
         <v>1547915.891305001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
         <v>1530326.368205001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
         <v>1588692.939005001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
         <v>1585385.147505001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3505,7 +3505,7 @@
         <v>1576441.063907893</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
         <v>1592812.148336711</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4132,7 +4132,7 @@
         <v>1592781.229536711</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
         <v>1635589.200919173</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4198,7 +4198,7 @@
         <v>1629581.116412131</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4396,7 +4396,7 @@
         <v>1629532.735912131</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4759,7 @@
         <v>1632271.271312131</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +4792,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4825,7 +4825,7 @@
         <v>1631246.079112131</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4858,7 +4858,7 @@
         <v>1630123.181212131</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4990,7 +4990,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5023,7 @@
         <v>1617239.79282807</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
         <v>1612239.79282807</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5287,7 +5287,7 @@
         <v>1641934.23772807</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5320,7 +5320,7 @@
         <v>1632124.428728071</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
         <v>1790551.702829104</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6046,7 +6046,7 @@
         <v>1787212.330729104</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6079,7 +6079,7 @@
         <v>1787205.330729104</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
         <v>1786476.283729104</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6145,7 +6145,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6178,7 +6178,7 @@
         <v>1786530.144229104</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6244,7 +6244,7 @@
         <v>1783164.609029104</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6277,7 +6277,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6310,7 +6310,7 @@
         <v>1784909.191737277</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6343,7 +6343,7 @@
         <v>1794996.862626843</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6376,7 +6376,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6409,7 +6409,7 @@
         <v>1791149.356118671</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6442,7 +6442,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6475,7 +6475,7 @@
         <v>1791157.356118671</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6508,7 +6508,7 @@
         <v>1783562.401718671</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6541,7 +6541,7 @@
         <v>1783605.198818671</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6574,7 +6574,7 @@
         <v>1792602.841634107</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6607,7 +6607,7 @@
         <v>1778010.276834107</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6640,7 +6640,7 @@
         <v>1778049.577552361</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6673,7 +6673,7 @@
         <v>1763418.953552361</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6706,7 +6706,7 @@
         <v>1749096.406952361</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6739,7 +6739,7 @@
         <v>1744540.801652361</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6772,7 +6772,7 @@
         <v>1744548.801652361</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6805,7 +6805,7 @@
         <v>1666559.427152361</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6838,7 +6838,7 @@
         <v>1677239.763152361</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6970,7 +6970,7 @@
         <v>1613211.591852361</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7102,7 +7102,7 @@
         <v>1680483.064452361</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7135,7 +7135,7 @@
         <v>1663014.367152361</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7168,7 +7168,7 @@
         <v>1663014.367152361</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7234,7 +7234,7 @@
         <v>1671969.912452361</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7267,7 +7267,7 @@
         <v>1674986.075452361</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
         <v>1680249.17035236</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7333,7 +7333,7 @@
         <v>1680249.17035236</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7366,7 +7366,7 @@
         <v>1675274.00315236</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7399,7 +7399,7 @@
         <v>1684521.02445236</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7498,7 +7498,7 @@
         <v>1654481.76775236</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7531,7 +7531,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7564,7 +7564,7 @@
         <v>1654191.76775236</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7597,7 +7597,7 @@
         <v>1642943.693527086</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7630,7 +7630,7 @@
         <v>1641998.406927086</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7762,7 +7762,7 @@
         <v>1649810.892327086</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8026,7 +8026,7 @@
         <v>1627117.180427086</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8092,7 +8092,7 @@
         <v>1626329.978327086</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -23107,7 +23107,7 @@
         <v>2142748.769215543</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23140,7 +23140,7 @@
         <v>1785719.854977993</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23173,7 +23173,7 @@
         <v>1221782.988277993</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23206,7 +23206,7 @@
         <v>1068714.669034785</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23239,7 +23239,7 @@
         <v>1132268.415054027</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23272,7 +23272,7 @@
         <v>1125792.901054027</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23305,7 +23305,7 @@
         <v>1026974.288654028</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23338,7 +23338,7 @@
         <v>1021863.560686254</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
